--- a/Experiments/dimensionality_reduction_metrics/results/theoretical_optimum.xlsx
+++ b/Experiments/dimensionality_reduction_metrics/results/theoretical_optimum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,6 +644,122 @@
         <v>0.1244441913674582</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023-07-16 19:19:34</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FMnist</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>stress</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>30</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" t="n">
+        <v>22</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.1139191995506052</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2023-07-16 19:19:34</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FMnist</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>stress</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.2431220418596329</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2023-07-16 19:19:34</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FMnist</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>stress</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>14</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1505231834363679</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2023-07-16 19:19:34</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FMnist</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>stress</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>40</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>30</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0937530279053362</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Experiments/dimensionality_reduction_metrics/results/theoretical_optimum.xlsx
+++ b/Experiments/dimensionality_reduction_metrics/results/theoretical_optimum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -760,6 +760,122 @@
         <v>0.0937530279053362</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2023-07-16 23:03:23</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Reuters30k</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>stress</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>30</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>28</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.1774658829856415</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2023-07-16 23:03:23</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Reuters30k</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>stress</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.3162277660168379</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2023-07-16 23:03:24</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Reuters30k</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>stress</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>20</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>18</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.2213388439911952</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2023-07-16 23:03:24</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Reuters30k</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>stress</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>40</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>38</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.1523358399849055</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Experiments/dimensionality_reduction_metrics/results/theoretical_optimum.xlsx
+++ b/Experiments/dimensionality_reduction_metrics/results/theoretical_optimum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -876,6 +876,267 @@
         <v>0.1523358399849055</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2023-07-17 02:02:19</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>stress</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.004945099992587836</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2023-07-17 02:03:18</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>stress</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.004945099992587836</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2023-07-17 02:03:18</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>stress</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>7</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.01952064496563264</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2023-07-17 02:03:18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>stress</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.5680354784012266</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2023-07-17 02:03:18</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>stress</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>6</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02760636085666775</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2023-07-17 02:03:19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>stress</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04585823797499209</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2023-07-17 02:03:19</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>stress</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.2352084552295149</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2023-07-17 02:03:19</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>stress</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>8</v>
+      </c>
+      <c r="E23" t="n">
+        <v>7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.01383268926919492</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2023-07-17 02:03:19</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>stress</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Experiments/dimensionality_reduction_metrics/results/theoretical_optimum.xlsx
+++ b/Experiments/dimensionality_reduction_metrics/results/theoretical_optimum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,6 +1137,122 @@
         <v>1</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2023-08-26 00:26:50</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>geneRNASeq</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>stress</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>40</v>
+      </c>
+      <c r="E25" t="n">
+        <v>8</v>
+      </c>
+      <c r="F25" t="n">
+        <v>32</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.04003624967153208</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2023-08-26 00:26:50</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>geneRNASeq</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>stress</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.104927894989448</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2023-08-26 00:26:51</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>geneRNASeq</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>stress</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5</v>
+      </c>
+      <c r="F27" t="n">
+        <v>15</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.06366885883235399</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2023-08-26 00:26:51</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>geneRNASeq</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>stress</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>30</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8</v>
+      </c>
+      <c r="F28" t="n">
+        <v>22</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04828553388125874</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
